--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vovanthuong/Desktop/chatbot/web_chatbot_covid/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vovanthuong/Desktop/covid19-chatbot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217BE7FB-889C-5D43-9C32-D82141E77DF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC773564-575F-524C-94BC-AACD6114B358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32460" yWindow="-2560" windowWidth="27000" windowHeight="17540" xr2:uid="{D6F58ACE-AEC7-E249-BA51-C49955594697}"/>
+    <workbookView xWindow="-21600" yWindow="-5740" windowWidth="21600" windowHeight="37900" xr2:uid="{D6F58ACE-AEC7-E249-BA51-C49955594697}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="456">
   <si>
     <t>COVID-19 là gì?</t>
   </si>
@@ -501,15 +501,6 @@
     <t>Sử dụng khẩu trang y tế đúng cách</t>
   </si>
   <si>
-    <t>Vắc xin COVID-19?</t>
-  </si>
-  <si>
-    <t>COVID-19 có vắc xin chưa?</t>
-  </si>
-  <si>
-    <t>Tiêm vắc xin COVID-19?</t>
-  </si>
-  <si>
     <t>Vắc xin COVID-19 là một loại vắc xin giả định phòng chống bệnh virus corona 2019 (COVID-19). Mặc dù chưa có mẫu vắc xin nào hoàn tất các thử nghiệm lâm sàng, nhưng đã và đang có nhiều nỗ lực trong quá trình phát triển vắc xin. Cuối tháng 2 năm 2020, Tổ chức Y tế Thế giới nói họ không nghĩ rằng một loại vắc xin phòng chống COVID-19 sẽ được hoàn thiện trong vòng ít hơn 18 tháng. Đến đầu tháng 3 năm 2020, khoảng 30 vắc-xin ứng cử đang trong quá trình phát triển.</t>
   </si>
   <si>
@@ -1372,15 +1363,6 @@
   </si>
   <si>
     <t>Tiếp xúc gần hoặc tiếp xúc trực tiếp là:\n - Tiếp xúc trực tiếp trong khoảng cách ≤ 2 mét với trường hợp bệnh nghi ngờ hoặc xác định nhiễm covid19.\n - Tiếp xúc tại các cơ sở y tế, bao gồm: trực tiếp chăm sóc người bệnh nhiễm covid19; làm việc cùng với nhân viên y tế nhiễm covid19; tới thăm người bệnh hoặc ở cùng phòng bệnh có người bệnh nhiễm covid19.\n - Sống cùng nhà với trường hợp bệnh nghi ngờ hoặc xác định nhiễm covid19.\n - Làm việc cùng phòng, học cùng lớp, sinh hoạt chung… với trường hợp bệnh nghi ngờ hoặc xác định nhiễm covid19.\n - Di chuyển trên cùng phương tiên với trường hợp bệnh nghi ngờ hoặc xác định nhiễm covid19.</t>
-  </si>
-  <si>
-    <t>Có vắc xin cho covid19 chưa?</t>
-  </si>
-  <si>
-    <t>Có thuốc chữa covid19 chưa?</t>
-  </si>
-  <si>
-    <t>Cho đến nay, vẫn chưa có vắc xin hoặc thuốc đặc hiệu cho covid19. Các nhà khoa học vẫn đang nghiên cứu phương pháp điều trị và sẽ kiểm chứng thông qua thử nghiệm lâm sàng.</t>
   </si>
   <si>
     <r>
@@ -1437,6 +1419,30 @@
       </rPr>
       <t>COVID-19 tử vong?</t>
     </r>
+  </si>
+  <si>
+    <t>Đến tháng 9/2021 đã có 8 loại vắc xin covid-19 được Việt Nam cấp phép.</t>
+  </si>
+  <si>
+    <t>Đến tháng 9/2021 đã có 8 loại vaccin covid-19 được Việt Nam cấp phép.</t>
+  </si>
+  <si>
+    <t>Có vắc xin cho covid-19 chưa?</t>
+  </si>
+  <si>
+    <t>Có vaccin cho covid-19 chưa?</t>
+  </si>
+  <si>
+    <t>Vắc xin covid-19 của Việt Nam</t>
+  </si>
+  <si>
+    <t>5 loại vắc xin phòng COVID-19 được nghiên cứu, sản xuất tại Việt Nam. Đến nay Nanocovax vẫn là ứng viên tiềm năng nhất.</t>
+  </si>
+  <si>
+    <t>Vaccin covid-19 của Việt Nam</t>
+  </si>
+  <si>
+    <t>5 loại Vaccin phòng COVID-19 được nghiên cứu, sản xuất tại Việt Nam. Đến nay Nanocovax vẫn là ứng viên tiềm năng nhất.</t>
   </si>
 </sst>
 </file>
@@ -1872,10 +1878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE8E851E-5BEA-EE49-9CA7-1DF40EB416BD}">
-  <dimension ref="A1:C627"/>
+  <dimension ref="A1:C625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="C314" sqref="C314"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1887,13 +1893,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1978,10 +1984,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2047,7 +2053,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2058,7 +2064,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2069,7 +2075,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2080,7 +2086,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2091,7 +2097,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2102,7 +2108,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2113,7 +2119,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2124,7 +2130,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2135,7 +2141,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2143,10 +2149,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2297,7 +2303,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>32</v>
@@ -2330,7 +2336,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>36</v>
@@ -2363,7 +2369,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>38</v>
@@ -2487,7 +2493,7 @@
         <v>48</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -2498,7 +2504,7 @@
         <v>49</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -2509,7 +2515,7 @@
         <v>50</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -2520,7 +2526,7 @@
         <v>51</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -2528,10 +2534,10 @@
         <v>6</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -3059,7 +3065,7 @@
         <v>99</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -3070,7 +3076,7 @@
         <v>100</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -3081,7 +3087,7 @@
         <v>101</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -3092,7 +3098,7 @@
         <v>102</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -3103,7 +3109,7 @@
         <v>103</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -3114,7 +3120,7 @@
         <v>104</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -3125,7 +3131,7 @@
         <v>105</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -3136,7 +3142,7 @@
         <v>106</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -3147,7 +3153,7 @@
         <v>107</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -3158,7 +3164,7 @@
         <v>108</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -3169,7 +3175,7 @@
         <v>109</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -3180,7 +3186,7 @@
         <v>110</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -3188,10 +3194,10 @@
         <v>8</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -3309,7 +3315,7 @@
         <v>10</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C130" s="11" t="s">
         <v>125</v>
@@ -3320,7 +3326,7 @@
         <v>10</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C131" s="11" t="s">
         <v>125</v>
@@ -3375,7 +3381,7 @@
         <v>10</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C136" s="11" t="s">
         <v>125</v>
@@ -3386,7 +3392,7 @@
         <v>10</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C137" s="11" t="s">
         <v>125</v>
@@ -3697,7 +3703,7 @@
         <v>152</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -3708,7 +3714,7 @@
         <v>153</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -3716,10 +3722,10 @@
         <v>13</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -3727,10 +3733,10 @@
         <v>13</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -3741,7 +3747,7 @@
         <v>152</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -3752,7 +3758,7 @@
         <v>153</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -3763,7 +3769,7 @@
         <v>154</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -3774,7 +3780,7 @@
         <v>155</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -3782,54 +3788,54 @@
         <v>13</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="10">
-        <v>14</v>
-      </c>
-      <c r="B174" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C174" s="12" t="s">
-        <v>159</v>
+        <v>15</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C174" s="13" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="10">
-        <v>14</v>
-      </c>
-      <c r="B175" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C175" s="12" t="s">
-        <v>159</v>
+        <v>15</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C175" s="13" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="10">
-        <v>14</v>
-      </c>
-      <c r="B176" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C176" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>159</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="10">
-        <v>14</v>
-      </c>
-      <c r="B177" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C177" s="12" t="s">
-        <v>159</v>
+        <v>15</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -3837,10 +3843,10 @@
         <v>15</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -3848,65 +3854,65 @@
         <v>15</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C179" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="10">
         <v>15</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>162</v>
+      <c r="B180" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="10">
         <v>15</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C181" s="13" t="s">
-        <v>167</v>
+      <c r="B181" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C181" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="10">
         <v>15</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C182" s="13" t="s">
-        <v>167</v>
+      <c r="B182" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C182" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="10">
         <v>15</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C183" s="13" t="s">
-        <v>167</v>
+      <c r="B183" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C183" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="10">
         <v>15</v>
       </c>
-      <c r="B184" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C184" s="13" t="s">
-        <v>167</v>
+      <c r="B184" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C184" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -3914,10 +3920,10 @@
         <v>15</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -3925,10 +3931,10 @@
         <v>15</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -3936,54 +3942,54 @@
         <v>15</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="10">
-        <v>15</v>
-      </c>
-      <c r="B188" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C188" s="14" t="s">
-        <v>177</v>
+        <v>16</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="10">
-        <v>15</v>
-      </c>
-      <c r="B189" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="C189" s="14" t="s">
-        <v>177</v>
+        <v>16</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="10">
-        <v>15</v>
-      </c>
-      <c r="B190" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="C190" s="14" t="s">
-        <v>177</v>
+        <v>16</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="10">
-        <v>15</v>
-      </c>
-      <c r="B191" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C191" s="14" t="s">
-        <v>177</v>
+        <v>16</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -3991,10 +3997,10 @@
         <v>16</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -4002,10 +4008,10 @@
         <v>16</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -4013,10 +4019,10 @@
         <v>16</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -4024,10 +4030,10 @@
         <v>16</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -4035,54 +4041,54 @@
         <v>16</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="10">
-        <v>16</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>176</v>
+        <v>17</v>
+      </c>
+      <c r="B197" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C197" s="14" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="10">
-        <v>16</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>176</v>
+        <v>17</v>
+      </c>
+      <c r="B198" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C198" s="14" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="10">
-        <v>16</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>176</v>
+        <v>17</v>
+      </c>
+      <c r="B199" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C199" s="14" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="10">
-        <v>16</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>176</v>
+        <v>17</v>
+      </c>
+      <c r="B200" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C200" s="14" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -4090,10 +4096,10 @@
         <v>17</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C201" s="14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -4101,10 +4107,10 @@
         <v>17</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C202" s="14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -4112,18 +4118,18 @@
         <v>17</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C203" s="14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B204" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C204" s="14" t="s">
         <v>190</v>
@@ -4131,10 +4137,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C205" s="14" t="s">
         <v>190</v>
@@ -4142,10 +4148,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C206" s="14" t="s">
         <v>190</v>
@@ -4153,21 +4159,21 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C207" s="14" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C208" s="14" t="s">
         <v>193</v>
@@ -4175,10 +4181,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C209" s="14" t="s">
         <v>193</v>
@@ -4186,79 +4192,79 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C211" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B212" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C212" s="14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="10">
-        <v>19</v>
-      </c>
-      <c r="B213" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="C213" s="14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="10">
-        <v>20</v>
-      </c>
-      <c r="B214" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C214" s="14" t="s">
+    </row>
+    <row r="213" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="6">
+        <v>21</v>
+      </c>
+      <c r="B213" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C213" s="15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="6">
+        <v>21</v>
+      </c>
+      <c r="B214" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C214" s="15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="6">
+        <v>21</v>
+      </c>
+      <c r="B215" s="15" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="10">
-        <v>20</v>
-      </c>
-      <c r="B215" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="C215" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="10">
-        <v>20</v>
-      </c>
-      <c r="B216" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C216" s="14" t="s">
-        <v>200</v>
+      <c r="C215" s="15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="6">
+        <v>21</v>
+      </c>
+      <c r="B216" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C216" s="15" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="217" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4266,450 +4272,450 @@
         <v>21</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="6">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="10">
         <v>21</v>
       </c>
-      <c r="B218" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="C218" s="15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="6">
-        <v>21</v>
-      </c>
-      <c r="B219" s="15" t="s">
+      <c r="B218" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C218" s="14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="10">
+        <v>22</v>
+      </c>
+      <c r="B219" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="C219" s="15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="6">
-        <v>21</v>
-      </c>
-      <c r="B220" s="15" t="s">
+      <c r="C219" s="14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="10">
+        <v>22</v>
+      </c>
+      <c r="B220" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C220" s="15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="6">
-        <v>21</v>
-      </c>
-      <c r="B221" s="15" t="s">
+      <c r="C220" s="14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="10">
+        <v>22</v>
+      </c>
+      <c r="B221" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="C221" s="15" t="s">
-        <v>292</v>
+      <c r="C221" s="14" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B222" s="14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C222" s="14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="10">
-        <v>22</v>
-      </c>
-      <c r="B223" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="C223" s="14" t="s">
-        <v>293</v>
+        <v>23</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C223" s="13" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="10">
-        <v>22</v>
-      </c>
-      <c r="B224" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="C224" s="14" t="s">
-        <v>293</v>
+        <v>23</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C224" s="13" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="10">
-        <v>22</v>
-      </c>
-      <c r="B225" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="C225" s="14" t="s">
-        <v>293</v>
+        <v>23</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C225" s="13" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="10">
-        <v>22</v>
-      </c>
-      <c r="B226" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="C226" s="14" t="s">
-        <v>293</v>
+        <v>23</v>
+      </c>
+      <c r="B226" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C226" s="13" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C227" s="13" t="s">
-        <v>294</v>
+        <v>208</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B228" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C228" s="13" t="s">
-        <v>294</v>
+      <c r="C228" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B229" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C229" s="13" t="s">
-        <v>294</v>
+      <c r="C229" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="10">
-        <v>23</v>
-      </c>
-      <c r="B230" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="C230" s="13" t="s">
-        <v>294</v>
+        <v>25</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="10">
-        <v>25</v>
-      </c>
-      <c r="B234" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C234" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B234" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C234" s="14" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="10">
-        <v>25</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C235" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B235" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C235" s="14" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="10">
-        <v>25</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C236" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B236" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="C236" s="14" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="10">
-        <v>25</v>
-      </c>
-      <c r="B237" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>217</v>
+        <v>27</v>
+      </c>
+      <c r="B237" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C237" s="14" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>218</v>
+        <v>292</v>
       </c>
       <c r="C238" s="14" t="s">
-        <v>220</v>
+        <v>292</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="10">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B239" s="14" t="s">
         <v>219</v>
       </c>
       <c r="C239" s="14" t="s">
-        <v>220</v>
+        <v>293</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="10">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B240" s="14" t="s">
         <v>220</v>
       </c>
       <c r="C240" s="14" t="s">
-        <v>220</v>
+        <v>293</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B241" s="14" t="s">
         <v>221</v>
       </c>
       <c r="C241" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C242" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B243" s="14" t="s">
         <v>222</v>
       </c>
       <c r="C243" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B244" s="14" t="s">
         <v>223</v>
       </c>
       <c r="C244" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B245" s="14" t="s">
         <v>224</v>
       </c>
       <c r="C245" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B246" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C246" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B247" s="14" t="s">
         <v>225</v>
       </c>
       <c r="C247" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B248" s="14" t="s">
         <v>226</v>
       </c>
       <c r="C248" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B249" s="14" t="s">
-        <v>227</v>
+        <v>295</v>
       </c>
       <c r="C249" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>297</v>
+        <v>227</v>
       </c>
       <c r="C250" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B251" s="14" t="s">
         <v>228</v>
       </c>
       <c r="C251" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B252" s="14" t="s">
         <v>229</v>
       </c>
       <c r="C252" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B253" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C253" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B254" s="14" t="s">
         <v>230</v>
       </c>
       <c r="C254" s="14" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B255" s="14" t="s">
         <v>231</v>
       </c>
       <c r="C255" s="14" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B256" s="14" t="s">
         <v>232</v>
       </c>
       <c r="C256" s="14" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C257" s="14" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -4720,50 +4726,50 @@
         <v>233</v>
       </c>
       <c r="C258" s="14" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B259" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="C259" s="14" t="s">
+      <c r="C259" s="4" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B260" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="C260" s="14" t="s">
+      <c r="C260" s="4" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B261" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="C261" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C261" s="4" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B262" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="C262" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C262" s="4" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4771,55 +4777,55 @@
       <c r="A263" s="10">
         <v>33</v>
       </c>
-      <c r="B263" s="14" t="s">
-        <v>237</v>
+      <c r="B263" s="4" t="s">
+        <v>308</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B264" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C264" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
+      </c>
+      <c r="C264" s="14" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B265" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="C265" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
+      </c>
+      <c r="C265" s="14" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B266" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="C266" s="4" t="s">
         <v>239</v>
+      </c>
+      <c r="C266" s="14" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="10">
-        <v>33</v>
-      </c>
-      <c r="B267" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C267" s="4" t="s">
-        <v>239</v>
+        <v>34</v>
+      </c>
+      <c r="B267" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C267" s="14" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -4830,216 +4836,216 @@
         <v>240</v>
       </c>
       <c r="C268" s="14" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B269" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="C269" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B270" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="C270" s="14" t="s">
         <v>243</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B271" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C271" s="14" t="s">
-        <v>243</v>
+      <c r="C271" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B272" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="C272" s="14" t="s">
-        <v>243</v>
+        <v>245</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="10">
         <v>35</v>
       </c>
-      <c r="B273" s="14" t="s">
-        <v>245</v>
+      <c r="B273" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B274" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B275" s="14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B276" s="14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="10">
-        <v>35</v>
-      </c>
-      <c r="B277" s="4" t="s">
-        <v>249</v>
+        <v>36</v>
+      </c>
+      <c r="B277" s="14" t="s">
+        <v>250</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="10">
         <v>36</v>
       </c>
-      <c r="B278" s="14" t="s">
-        <v>250</v>
+      <c r="B278" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B279" s="14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B281" s="14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="10">
-        <v>36</v>
-      </c>
-      <c r="B282" s="4" t="s">
-        <v>254</v>
+        <v>37</v>
+      </c>
+      <c r="B282" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="10">
         <v>37</v>
       </c>
-      <c r="B283" s="14" t="s">
-        <v>255</v>
+      <c r="B283" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="10">
-        <v>37</v>
-      </c>
-      <c r="B284" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="C284" s="4" t="s">
-        <v>259</v>
+        <v>38</v>
+      </c>
+      <c r="B284" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C284" s="13" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="10">
-        <v>37</v>
-      </c>
-      <c r="B285" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="C285" s="4" t="s">
-        <v>259</v>
+        <v>38</v>
+      </c>
+      <c r="B285" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C285" s="13" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="10">
-        <v>37</v>
-      </c>
-      <c r="B286" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="C286" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B286" s="13" t="s">
         <v>259</v>
+      </c>
+      <c r="C286" s="13" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="10">
-        <v>37</v>
-      </c>
-      <c r="B287" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C287" s="4" t="s">
-        <v>259</v>
+        <v>38</v>
+      </c>
+      <c r="B287" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C287" s="13" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -5047,10 +5053,10 @@
         <v>38</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C288" s="13" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -5058,10 +5064,10 @@
         <v>38</v>
       </c>
       <c r="B289" s="13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C289" s="13" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -5069,10 +5075,10 @@
         <v>38</v>
       </c>
       <c r="B290" s="13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C290" s="13" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -5080,10 +5086,10 @@
         <v>38</v>
       </c>
       <c r="B291" s="13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C291" s="13" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -5091,54 +5097,54 @@
         <v>38</v>
       </c>
       <c r="B292" s="13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C292" s="13" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="10">
-        <v>38</v>
-      </c>
-      <c r="B293" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="C293" s="13" t="s">
-        <v>268</v>
+        <v>39</v>
+      </c>
+      <c r="B293" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C293" s="14" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="10">
-        <v>38</v>
-      </c>
-      <c r="B294" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="C294" s="13" t="s">
-        <v>268</v>
+        <v>39</v>
+      </c>
+      <c r="B294" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C294" s="14" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="10">
-        <v>38</v>
-      </c>
-      <c r="B295" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="C295" s="13" t="s">
-        <v>268</v>
+        <v>39</v>
+      </c>
+      <c r="B295" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C295" s="14" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="10">
-        <v>38</v>
-      </c>
-      <c r="B296" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B296" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="C296" s="13" t="s">
-        <v>268</v>
+      <c r="C296" s="14" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -5146,10 +5152,10 @@
         <v>39</v>
       </c>
       <c r="B297" s="14" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="C297" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -5157,10 +5163,10 @@
         <v>39</v>
       </c>
       <c r="B298" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C298" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -5168,65 +5174,65 @@
         <v>39</v>
       </c>
       <c r="B299" s="14" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C299" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="10">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B300" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C300" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="10">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B301" s="14" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="C301" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="10">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B302" s="14" t="s">
         <v>272</v>
       </c>
       <c r="C302" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="10">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B303" s="14" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="C303" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B304" s="14" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C304" s="14" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -5234,10 +5240,10 @@
         <v>41</v>
       </c>
       <c r="B305" s="14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C305" s="14" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -5245,10 +5251,10 @@
         <v>41</v>
       </c>
       <c r="B306" s="14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C306" s="14" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -5256,87 +5262,87 @@
         <v>41</v>
       </c>
       <c r="B307" s="14" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="C307" s="14" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B308" s="14" t="s">
         <v>277</v>
       </c>
       <c r="C308" s="14" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B309" s="14" t="s">
         <v>278</v>
       </c>
       <c r="C309" s="14" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B310" s="14" t="s">
         <v>279</v>
       </c>
       <c r="C310" s="14" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="10">
-        <v>41</v>
-      </c>
-      <c r="B311" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="C311" s="14" t="s">
-        <v>301</v>
+        <v>1</v>
+      </c>
+      <c r="B311" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C311" s="11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="10">
-        <v>42</v>
-      </c>
-      <c r="B312" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="C312" s="14" t="s">
-        <v>282</v>
+        <v>1</v>
+      </c>
+      <c r="B312" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C312" s="11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="10">
-        <v>42</v>
-      </c>
-      <c r="B313" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="C313" s="14" t="s">
-        <v>282</v>
+        <v>1</v>
+      </c>
+      <c r="B313" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C313" s="11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="10">
-        <v>42</v>
-      </c>
-      <c r="B314" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="C314" s="14" t="s">
-        <v>282</v>
+        <v>1</v>
+      </c>
+      <c r="B314" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C314" s="11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
@@ -5344,7 +5350,7 @@
         <v>1</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C315" s="11" t="s">
         <v>6</v>
@@ -5355,7 +5361,7 @@
         <v>1</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C316" s="11" t="s">
         <v>6</v>
@@ -5366,7 +5372,7 @@
         <v>1</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="C317" s="11" t="s">
         <v>6</v>
@@ -5377,54 +5383,54 @@
         <v>1</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>3</v>
+        <v>314</v>
       </c>
       <c r="C318" s="11" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C319" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C320" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C321" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C322" s="11" t="s">
-        <v>166</v>
+        <v>7</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -5432,7 +5438,7 @@
         <v>2</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C323" s="11" t="s">
         <v>7</v>
@@ -5440,46 +5446,46 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C324" s="11" t="s">
-        <v>7</v>
+        <v>444</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C325" s="11" t="s">
-        <v>7</v>
+        <v>444</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C326" s="11" t="s">
-        <v>7</v>
+        <v>444</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C327" s="11" t="s">
-        <v>7</v>
+        <v>444</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
@@ -5487,10 +5493,10 @@
         <v>3</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C328" s="11" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -5498,10 +5504,10 @@
         <v>3</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C329" s="11" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -5509,10 +5515,10 @@
         <v>3</v>
       </c>
       <c r="B330" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C330" s="11" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -5520,10 +5526,10 @@
         <v>3</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C331" s="11" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
@@ -5531,10 +5537,10 @@
         <v>3</v>
       </c>
       <c r="B332" s="11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C332" s="11" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
@@ -5542,54 +5548,54 @@
         <v>3</v>
       </c>
       <c r="B333" s="11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C333" s="11" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B334" s="11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C334" s="11" t="s">
-        <v>450</v>
+        <v>24</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B335" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C335" s="11" t="s">
-        <v>450</v>
+        <v>24</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B336" s="11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C336" s="11" t="s">
-        <v>450</v>
+        <v>24</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>332</v>
+        <v>24</v>
       </c>
       <c r="C337" s="11" t="s">
-        <v>450</v>
+        <v>24</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
@@ -5600,7 +5606,7 @@
         <v>333</v>
       </c>
       <c r="C338" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
@@ -5611,7 +5617,7 @@
         <v>334</v>
       </c>
       <c r="C339" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
@@ -5622,7 +5628,7 @@
         <v>335</v>
       </c>
       <c r="C340" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
@@ -5630,10 +5636,10 @@
         <v>4</v>
       </c>
       <c r="B341" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C341" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
@@ -5644,7 +5650,7 @@
         <v>336</v>
       </c>
       <c r="C342" s="11" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
@@ -5655,7 +5661,7 @@
         <v>337</v>
       </c>
       <c r="C343" s="11" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
@@ -5666,7 +5672,7 @@
         <v>338</v>
       </c>
       <c r="C344" s="11" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
@@ -5674,76 +5680,76 @@
         <v>4</v>
       </c>
       <c r="B345" s="11" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C345" s="11" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="10">
-        <v>4</v>
-      </c>
-      <c r="B346" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B346" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="C346" s="11" t="s">
-        <v>34</v>
+      <c r="C346" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B347" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="C347" s="11" t="s">
-        <v>34</v>
+      <c r="C347" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="10">
-        <v>4</v>
-      </c>
-      <c r="B348" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B348" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="C348" s="11" t="s">
-        <v>34</v>
+      <c r="C348" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="10">
-        <v>4</v>
-      </c>
-      <c r="B349" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C349" s="11" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="B349" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C349" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="10">
         <v>5</v>
       </c>
-      <c r="B350" s="12" t="s">
-        <v>342</v>
+      <c r="B350" s="11" t="s">
+        <v>343</v>
       </c>
       <c r="C350" s="12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="10">
         <v>5</v>
       </c>
-      <c r="B351" s="11" t="s">
-        <v>343</v>
+      <c r="B351" s="12" t="s">
+        <v>344</v>
       </c>
       <c r="C351" s="12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
@@ -5751,32 +5757,32 @@
         <v>5</v>
       </c>
       <c r="B352" s="12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C352" s="12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="10">
         <v>5</v>
       </c>
-      <c r="B353" s="12" t="s">
-        <v>345</v>
+      <c r="B353" s="11" t="s">
+        <v>346</v>
       </c>
       <c r="C353" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="10">
         <v>5</v>
       </c>
-      <c r="B354" s="11" t="s">
-        <v>346</v>
+      <c r="B354" s="12" t="s">
+        <v>347</v>
       </c>
       <c r="C354" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
@@ -5784,32 +5790,32 @@
         <v>5</v>
       </c>
       <c r="B355" s="12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C355" s="12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="10">
         <v>5</v>
       </c>
-      <c r="B356" s="12" t="s">
-        <v>348</v>
+      <c r="B356" s="11" t="s">
+        <v>349</v>
       </c>
       <c r="C356" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="10">
         <v>5</v>
       </c>
-      <c r="B357" s="11" t="s">
-        <v>349</v>
+      <c r="B357" s="12" t="s">
+        <v>350</v>
       </c>
       <c r="C357" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
@@ -5817,32 +5823,32 @@
         <v>5</v>
       </c>
       <c r="B358" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C358" s="12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="10">
         <v>5</v>
       </c>
-      <c r="B359" s="12" t="s">
-        <v>351</v>
+      <c r="B359" s="11" t="s">
+        <v>352</v>
       </c>
       <c r="C359" s="12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="10">
         <v>5</v>
       </c>
-      <c r="B360" s="11" t="s">
-        <v>352</v>
+      <c r="B360" s="12" t="s">
+        <v>353</v>
       </c>
       <c r="C360" s="12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
@@ -5850,76 +5856,76 @@
         <v>5</v>
       </c>
       <c r="B361" s="12" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C361" s="12" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="10">
         <v>5</v>
       </c>
-      <c r="B362" s="12" t="s">
-        <v>354</v>
+      <c r="B362" s="11" t="s">
+        <v>355</v>
       </c>
       <c r="C362" s="12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="10">
         <v>5</v>
       </c>
-      <c r="B363" s="11" t="s">
-        <v>355</v>
+      <c r="B363" s="12" t="s">
+        <v>356</v>
       </c>
       <c r="C363" s="12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="10">
-        <v>5</v>
-      </c>
-      <c r="B364" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="C364" s="12" t="s">
-        <v>43</v>
+        <v>6</v>
+      </c>
+      <c r="B364" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="C364" s="11" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="10">
-        <v>5</v>
-      </c>
-      <c r="B365" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="C365" s="12" t="s">
-        <v>46</v>
+        <v>6</v>
+      </c>
+      <c r="B365" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C365" s="11" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B366" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="C366" s="12" t="s">
-        <v>46</v>
+        <v>359</v>
+      </c>
+      <c r="C366" s="11" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="10">
-        <v>5</v>
-      </c>
-      <c r="B367" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="C367" s="12" t="s">
-        <v>46</v>
+        <v>6</v>
+      </c>
+      <c r="B367" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="C367" s="11" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
@@ -5927,54 +5933,54 @@
         <v>6</v>
       </c>
       <c r="B368" s="11" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C368" s="11" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B369" s="11" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C369" s="11" t="s">
-        <v>302</v>
+        <v>56</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B370" s="11" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C370" s="11" t="s">
-        <v>302</v>
+        <v>56</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B371" s="11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C371" s="11" t="s">
-        <v>302</v>
+        <v>56</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B372" s="11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C372" s="11" t="s">
-        <v>302</v>
+        <v>56</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
@@ -5982,7 +5988,7 @@
         <v>7</v>
       </c>
       <c r="B373" s="11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C373" s="11" t="s">
         <v>56</v>
@@ -5993,10 +5999,10 @@
         <v>7</v>
       </c>
       <c r="B374" s="11" t="s">
-        <v>366</v>
+        <v>57</v>
       </c>
       <c r="C374" s="11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
@@ -6004,10 +6010,10 @@
         <v>7</v>
       </c>
       <c r="B375" s="11" t="s">
-        <v>367</v>
+        <v>58</v>
       </c>
       <c r="C375" s="11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
@@ -6015,10 +6021,10 @@
         <v>7</v>
       </c>
       <c r="B376" s="11" t="s">
-        <v>368</v>
+        <v>59</v>
       </c>
       <c r="C376" s="11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
@@ -6026,10 +6032,10 @@
         <v>7</v>
       </c>
       <c r="B377" s="11" t="s">
-        <v>369</v>
+        <v>60</v>
       </c>
       <c r="C377" s="11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
@@ -6037,7 +6043,7 @@
         <v>7</v>
       </c>
       <c r="B378" s="11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C378" s="11" t="s">
         <v>61</v>
@@ -6048,10 +6054,10 @@
         <v>7</v>
       </c>
       <c r="B379" s="11" t="s">
-        <v>58</v>
+        <v>367</v>
       </c>
       <c r="C379" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
@@ -6059,10 +6065,10 @@
         <v>7</v>
       </c>
       <c r="B380" s="11" t="s">
-        <v>59</v>
+        <v>368</v>
       </c>
       <c r="C380" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
@@ -6070,10 +6076,10 @@
         <v>7</v>
       </c>
       <c r="B381" s="11" t="s">
-        <v>60</v>
+        <v>369</v>
       </c>
       <c r="C381" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
@@ -6081,10 +6087,10 @@
         <v>7</v>
       </c>
       <c r="B382" s="11" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="C382" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
@@ -6092,7 +6098,7 @@
         <v>7</v>
       </c>
       <c r="B383" s="11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C383" s="11" t="s">
         <v>63</v>
@@ -6103,10 +6109,10 @@
         <v>7</v>
       </c>
       <c r="B384" s="11" t="s">
-        <v>371</v>
+        <v>67</v>
       </c>
       <c r="C384" s="11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
@@ -6114,10 +6120,10 @@
         <v>7</v>
       </c>
       <c r="B385" s="11" t="s">
-        <v>372</v>
+        <v>69</v>
       </c>
       <c r="C385" s="11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
@@ -6125,10 +6131,10 @@
         <v>7</v>
       </c>
       <c r="B386" s="11" t="s">
-        <v>373</v>
+        <v>70</v>
       </c>
       <c r="C386" s="11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
@@ -6136,10 +6142,10 @@
         <v>7</v>
       </c>
       <c r="B387" s="11" t="s">
-        <v>374</v>
+        <v>71</v>
       </c>
       <c r="C387" s="11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
@@ -6147,7 +6153,7 @@
         <v>7</v>
       </c>
       <c r="B388" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C388" s="11" t="s">
         <v>68</v>
@@ -6158,10 +6164,10 @@
         <v>7</v>
       </c>
       <c r="B389" s="11" t="s">
-        <v>69</v>
+        <v>372</v>
       </c>
       <c r="C389" s="11" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
@@ -6169,10 +6175,10 @@
         <v>7</v>
       </c>
       <c r="B390" s="11" t="s">
-        <v>70</v>
+        <v>373</v>
       </c>
       <c r="C390" s="11" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
@@ -6180,10 +6186,10 @@
         <v>7</v>
       </c>
       <c r="B391" s="11" t="s">
-        <v>71</v>
+        <v>374</v>
       </c>
       <c r="C391" s="11" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
@@ -6191,10 +6197,10 @@
         <v>7</v>
       </c>
       <c r="B392" s="11" t="s">
-        <v>68</v>
+        <v>375</v>
       </c>
       <c r="C392" s="11" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
@@ -6202,7 +6208,7 @@
         <v>7</v>
       </c>
       <c r="B393" s="11" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C393" s="11" t="s">
         <v>82</v>
@@ -6213,7 +6219,7 @@
         <v>7</v>
       </c>
       <c r="B394" s="11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C394" s="11" t="s">
         <v>82</v>
@@ -6224,7 +6230,7 @@
         <v>7</v>
       </c>
       <c r="B395" s="11" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C395" s="11" t="s">
         <v>82</v>
@@ -6235,7 +6241,7 @@
         <v>7</v>
       </c>
       <c r="B396" s="11" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C396" s="11" t="s">
         <v>82</v>
@@ -6246,7 +6252,7 @@
         <v>7</v>
       </c>
       <c r="B397" s="11" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C397" s="11" t="s">
         <v>82</v>
@@ -6257,7 +6263,7 @@
         <v>7</v>
       </c>
       <c r="B398" s="11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C398" s="11" t="s">
         <v>82</v>
@@ -6268,7 +6274,7 @@
         <v>7</v>
       </c>
       <c r="B399" s="11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C399" s="11" t="s">
         <v>82</v>
@@ -6279,10 +6285,10 @@
         <v>7</v>
       </c>
       <c r="B400" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C400" s="11" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
@@ -6290,10 +6296,10 @@
         <v>7</v>
       </c>
       <c r="B401" s="11" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C401" s="11" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
@@ -6301,10 +6307,10 @@
         <v>7</v>
       </c>
       <c r="B402" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C402" s="11" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
@@ -6312,10 +6318,10 @@
         <v>7</v>
       </c>
       <c r="B403" s="11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C403" s="11" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
@@ -6323,7 +6329,7 @@
         <v>7</v>
       </c>
       <c r="B404" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C404" s="11" t="s">
         <v>93</v>
@@ -6334,7 +6340,7 @@
         <v>7</v>
       </c>
       <c r="B405" s="11" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C405" s="11" t="s">
         <v>93</v>
@@ -6345,7 +6351,7 @@
         <v>7</v>
       </c>
       <c r="B406" s="11" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C406" s="11" t="s">
         <v>93</v>
@@ -6356,7 +6362,7 @@
         <v>7</v>
       </c>
       <c r="B407" s="11" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C407" s="11" t="s">
         <v>93</v>
@@ -6367,7 +6373,7 @@
         <v>7</v>
       </c>
       <c r="B408" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C408" s="11" t="s">
         <v>93</v>
@@ -6378,7 +6384,7 @@
         <v>7</v>
       </c>
       <c r="B409" s="11" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C409" s="11" t="s">
         <v>93</v>
@@ -6389,7 +6395,7 @@
         <v>7</v>
       </c>
       <c r="B410" s="11" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C410" s="11" t="s">
         <v>93</v>
@@ -6400,10 +6406,10 @@
         <v>7</v>
       </c>
       <c r="B411" s="11" t="s">
-        <v>393</v>
+        <v>94</v>
       </c>
       <c r="C411" s="11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
@@ -6411,10 +6417,10 @@
         <v>7</v>
       </c>
       <c r="B412" s="11" t="s">
-        <v>394</v>
+        <v>95</v>
       </c>
       <c r="C412" s="11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
@@ -6422,10 +6428,10 @@
         <v>7</v>
       </c>
       <c r="B413" s="11" t="s">
-        <v>395</v>
+        <v>96</v>
       </c>
       <c r="C413" s="11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
@@ -6433,10 +6439,10 @@
         <v>7</v>
       </c>
       <c r="B414" s="11" t="s">
-        <v>396</v>
+        <v>97</v>
       </c>
       <c r="C414" s="11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
@@ -6444,7 +6450,7 @@
         <v>7</v>
       </c>
       <c r="B415" s="11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C415" s="11" t="s">
         <v>98</v>
@@ -6452,46 +6458,46 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B416" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C416" s="11" t="s">
-        <v>98</v>
+        <v>394</v>
+      </c>
+      <c r="C416" s="5" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B417" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C417" s="11" t="s">
-        <v>98</v>
+        <v>395</v>
+      </c>
+      <c r="C417" s="5" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B418" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C418" s="11" t="s">
-        <v>98</v>
+        <v>396</v>
+      </c>
+      <c r="C418" s="5" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B419" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C419" s="11" t="s">
-        <v>98</v>
+        <v>397</v>
+      </c>
+      <c r="C419" s="5" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
@@ -6499,10 +6505,10 @@
         <v>8</v>
       </c>
       <c r="B420" s="11" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
@@ -6510,10 +6516,10 @@
         <v>8</v>
       </c>
       <c r="B421" s="11" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
@@ -6521,10 +6527,10 @@
         <v>8</v>
       </c>
       <c r="B422" s="11" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
@@ -6532,10 +6538,10 @@
         <v>8</v>
       </c>
       <c r="B423" s="11" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
@@ -6543,10 +6549,10 @@
         <v>8</v>
       </c>
       <c r="B424" s="11" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
@@ -6554,10 +6560,10 @@
         <v>8</v>
       </c>
       <c r="B425" s="11" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
@@ -6565,10 +6571,10 @@
         <v>8</v>
       </c>
       <c r="B426" s="11" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
@@ -6576,65 +6582,65 @@
         <v>8</v>
       </c>
       <c r="B427" s="11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" s="10">
         <v>8</v>
       </c>
-      <c r="B428" s="11" t="s">
-        <v>405</v>
+      <c r="B428" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B429" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="C429" s="5" t="s">
-        <v>290</v>
+        <v>111</v>
+      </c>
+      <c r="C429" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B430" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="C430" s="5" t="s">
-        <v>290</v>
+        <v>112</v>
+      </c>
+      <c r="C430" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B431" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="C431" s="5" t="s">
-        <v>290</v>
+        <v>113</v>
+      </c>
+      <c r="C431" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="10">
-        <v>8</v>
-      </c>
-      <c r="B432" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C432" s="5" t="s">
-        <v>290</v>
+        <v>9</v>
+      </c>
+      <c r="B432" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C432" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
@@ -6642,7 +6648,7 @@
         <v>9</v>
       </c>
       <c r="B433" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C433" s="11" t="s">
         <v>115</v>
@@ -6650,46 +6656,46 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B434" s="11" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C434" s="11" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B435" s="11" t="s">
-        <v>113</v>
+        <v>407</v>
       </c>
       <c r="C435" s="11" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B436" s="11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C436" s="11" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B437" s="11" t="s">
-        <v>115</v>
+        <v>408</v>
       </c>
       <c r="C437" s="11" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
@@ -6697,7 +6703,7 @@
         <v>10</v>
       </c>
       <c r="B438" s="11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C438" s="11" t="s">
         <v>120</v>
@@ -6708,10 +6714,10 @@
         <v>10</v>
       </c>
       <c r="B439" s="11" t="s">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="C439" s="11" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
@@ -6719,10 +6725,10 @@
         <v>10</v>
       </c>
       <c r="B440" s="11" t="s">
-        <v>118</v>
+        <v>409</v>
       </c>
       <c r="C440" s="11" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
@@ -6730,10 +6736,10 @@
         <v>10</v>
       </c>
       <c r="B441" s="11" t="s">
-        <v>411</v>
+        <v>121</v>
       </c>
       <c r="C441" s="11" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
@@ -6741,10 +6747,10 @@
         <v>10</v>
       </c>
       <c r="B442" s="11" t="s">
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="C442" s="11" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
@@ -6752,7 +6758,7 @@
         <v>10</v>
       </c>
       <c r="B443" s="11" t="s">
-        <v>303</v>
+        <v>123</v>
       </c>
       <c r="C443" s="11" t="s">
         <v>125</v>
@@ -6763,7 +6769,7 @@
         <v>10</v>
       </c>
       <c r="B444" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C444" s="11" t="s">
         <v>125</v>
@@ -6774,7 +6780,7 @@
         <v>10</v>
       </c>
       <c r="B445" s="11" t="s">
-        <v>121</v>
+        <v>302</v>
       </c>
       <c r="C445" s="11" t="s">
         <v>125</v>
@@ -6785,7 +6791,7 @@
         <v>10</v>
       </c>
       <c r="B446" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C446" s="11" t="s">
         <v>125</v>
@@ -6796,7 +6802,7 @@
         <v>10</v>
       </c>
       <c r="B447" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C447" s="11" t="s">
         <v>125</v>
@@ -6807,10 +6813,10 @@
         <v>10</v>
       </c>
       <c r="B448" s="11" t="s">
-        <v>414</v>
+        <v>126</v>
       </c>
       <c r="C448" s="11" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
@@ -6818,10 +6824,10 @@
         <v>10</v>
       </c>
       <c r="B449" s="11" t="s">
-        <v>305</v>
+        <v>413</v>
       </c>
       <c r="C449" s="11" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
@@ -6829,10 +6835,10 @@
         <v>10</v>
       </c>
       <c r="B450" s="11" t="s">
-        <v>415</v>
+        <v>128</v>
       </c>
       <c r="C450" s="11" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
@@ -6840,10 +6846,10 @@
         <v>10</v>
       </c>
       <c r="B451" s="11" t="s">
-        <v>125</v>
+        <v>414</v>
       </c>
       <c r="C451" s="11" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
@@ -6851,7 +6857,7 @@
         <v>10</v>
       </c>
       <c r="B452" s="11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C452" s="11" t="s">
         <v>130</v>
@@ -6862,10 +6868,10 @@
         <v>10</v>
       </c>
       <c r="B453" s="11" t="s">
-        <v>416</v>
+        <v>131</v>
       </c>
       <c r="C453" s="11" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
@@ -6873,10 +6879,10 @@
         <v>10</v>
       </c>
       <c r="B454" s="11" t="s">
-        <v>128</v>
+        <v>415</v>
       </c>
       <c r="C454" s="11" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
@@ -6884,10 +6890,10 @@
         <v>10</v>
       </c>
       <c r="B455" s="11" t="s">
-        <v>417</v>
+        <v>133</v>
       </c>
       <c r="C455" s="11" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
@@ -6895,10 +6901,10 @@
         <v>10</v>
       </c>
       <c r="B456" s="11" t="s">
-        <v>130</v>
+        <v>416</v>
       </c>
       <c r="C456" s="11" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
@@ -6906,7 +6912,7 @@
         <v>10</v>
       </c>
       <c r="B457" s="11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C457" s="11" t="s">
         <v>135</v>
@@ -6914,46 +6920,46 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B458" s="11" t="s">
-        <v>418</v>
+        <v>136</v>
       </c>
       <c r="C458" s="11" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B459" s="11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C459" s="11" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B460" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C460" s="11" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B461" s="11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C461" s="11" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
@@ -6961,7 +6967,7 @@
         <v>11</v>
       </c>
       <c r="B462" s="11" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C462" s="11" t="s">
         <v>146</v>
@@ -6972,7 +6978,7 @@
         <v>11</v>
       </c>
       <c r="B463" s="11" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C463" s="11" t="s">
         <v>146</v>
@@ -6983,7 +6989,7 @@
         <v>11</v>
       </c>
       <c r="B464" s="11" t="s">
-        <v>420</v>
+        <v>142</v>
       </c>
       <c r="C464" s="11" t="s">
         <v>146</v>
@@ -6994,7 +7000,7 @@
         <v>11</v>
       </c>
       <c r="B465" s="11" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C465" s="11" t="s">
         <v>146</v>
@@ -7005,7 +7011,7 @@
         <v>11</v>
       </c>
       <c r="B466" s="11" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C466" s="11" t="s">
         <v>146</v>
@@ -7016,7 +7022,7 @@
         <v>11</v>
       </c>
       <c r="B467" s="11" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C467" s="11" t="s">
         <v>146</v>
@@ -7027,7 +7033,7 @@
         <v>11</v>
       </c>
       <c r="B468" s="11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C468" s="11" t="s">
         <v>146</v>
@@ -7035,46 +7041,46 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" s="10">
-        <v>11</v>
-      </c>
-      <c r="B469" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C469" s="11" t="s">
-        <v>146</v>
+        <v>12</v>
+      </c>
+      <c r="B469" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C469" s="12" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" s="10">
-        <v>11</v>
-      </c>
-      <c r="B470" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C470" s="11" t="s">
-        <v>146</v>
+        <v>12</v>
+      </c>
+      <c r="B470" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C470" s="12" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" s="10">
-        <v>11</v>
-      </c>
-      <c r="B471" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C471" s="11" t="s">
-        <v>146</v>
+        <v>12</v>
+      </c>
+      <c r="B471" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C471" s="12" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" s="10">
-        <v>11</v>
-      </c>
-      <c r="B472" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C472" s="11" t="s">
-        <v>146</v>
+        <v>12</v>
+      </c>
+      <c r="B472" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C472" s="12" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
@@ -7082,7 +7088,7 @@
         <v>12</v>
       </c>
       <c r="B473" s="12" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C473" s="12" t="s">
         <v>151</v>
@@ -7090,46 +7096,46 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B474" s="12" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C474" s="12" t="s">
-        <v>151</v>
+        <v>288</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B475" s="12" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C475" s="12" t="s">
-        <v>151</v>
+        <v>288</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B476" s="12" t="s">
-        <v>150</v>
+        <v>283</v>
       </c>
       <c r="C476" s="12" t="s">
-        <v>151</v>
+        <v>288</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B477" s="12" t="s">
-        <v>151</v>
+        <v>284</v>
       </c>
       <c r="C477" s="12" t="s">
-        <v>151</v>
+        <v>288</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
@@ -7140,7 +7146,7 @@
         <v>152</v>
       </c>
       <c r="C478" s="12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
@@ -7151,7 +7157,7 @@
         <v>153</v>
       </c>
       <c r="C479" s="12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
@@ -7159,10 +7165,10 @@
         <v>13</v>
       </c>
       <c r="B480" s="12" t="s">
-        <v>286</v>
+        <v>154</v>
       </c>
       <c r="C480" s="12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
@@ -7170,10 +7176,10 @@
         <v>13</v>
       </c>
       <c r="B481" s="12" t="s">
-        <v>287</v>
+        <v>155</v>
       </c>
       <c r="C481" s="12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
@@ -7181,98 +7187,98 @@
         <v>13</v>
       </c>
       <c r="B482" s="12" t="s">
-        <v>152</v>
+        <v>288</v>
       </c>
       <c r="C482" s="12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" s="10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B483" s="12" t="s">
-        <v>153</v>
+        <v>418</v>
       </c>
       <c r="C483" s="12" t="s">
-        <v>291</v>
+        <v>156</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" s="10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B484" s="12" t="s">
-        <v>154</v>
+        <v>419</v>
       </c>
       <c r="C484" s="12" t="s">
-        <v>291</v>
+        <v>156</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" s="10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B485" s="12" t="s">
-        <v>155</v>
+        <v>420</v>
       </c>
       <c r="C485" s="12" t="s">
-        <v>291</v>
+        <v>156</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" s="10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B486" s="12" t="s">
-        <v>291</v>
+        <v>421</v>
       </c>
       <c r="C486" s="12" t="s">
-        <v>291</v>
+        <v>156</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" s="10">
-        <v>14</v>
-      </c>
-      <c r="B487" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="C487" s="12" t="s">
-        <v>159</v>
+        <v>15</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C487" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" s="10">
-        <v>14</v>
-      </c>
-      <c r="B488" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B488" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C488" s="12" t="s">
-        <v>159</v>
+      <c r="C488" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" s="10">
-        <v>14</v>
-      </c>
-      <c r="B489" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B489" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C489" s="12" t="s">
-        <v>159</v>
+      <c r="C489" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" s="10">
-        <v>14</v>
-      </c>
-      <c r="B490" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="C490" s="12" t="s">
-        <v>159</v>
+        <v>15</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C490" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -7280,10 +7286,10 @@
         <v>15</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C491" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -7291,65 +7297,65 @@
         <v>15</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C492" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" s="10">
         <v>15</v>
       </c>
-      <c r="B493" s="2" t="s">
-        <v>426</v>
+      <c r="B493" s="16" t="s">
+        <v>425</v>
       </c>
       <c r="C493" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" s="10">
         <v>15</v>
       </c>
-      <c r="B494" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C494" s="16" t="s">
-        <v>167</v>
+      <c r="B494" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="C494" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="10">
         <v>15</v>
       </c>
-      <c r="B495" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C495" s="16" t="s">
-        <v>167</v>
+      <c r="B495" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="C495" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="10">
         <v>15</v>
       </c>
-      <c r="B496" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C496" s="16" t="s">
-        <v>167</v>
+      <c r="B496" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C496" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" s="10">
         <v>15</v>
       </c>
-      <c r="B497" s="16" t="s">
-        <v>428</v>
-      </c>
-      <c r="C497" s="16" t="s">
-        <v>167</v>
+      <c r="B497" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C497" s="14" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
@@ -7357,10 +7363,10 @@
         <v>15</v>
       </c>
       <c r="B498" s="14" t="s">
-        <v>429</v>
+        <v>179</v>
       </c>
       <c r="C498" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
@@ -7368,10 +7374,10 @@
         <v>15</v>
       </c>
       <c r="B499" s="14" t="s">
-        <v>430</v>
+        <v>180</v>
       </c>
       <c r="C499" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
@@ -7379,54 +7385,54 @@
         <v>15</v>
       </c>
       <c r="B500" s="14" t="s">
-        <v>180</v>
+        <v>428</v>
       </c>
       <c r="C500" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" s="10">
-        <v>15</v>
-      </c>
-      <c r="B501" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C501" s="14" t="s">
-        <v>177</v>
+        <v>16</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C501" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" s="10">
-        <v>15</v>
-      </c>
-      <c r="B502" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="C502" s="14" t="s">
-        <v>177</v>
+        <v>16</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C502" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" s="10">
-        <v>15</v>
-      </c>
-      <c r="B503" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="C503" s="14" t="s">
-        <v>177</v>
+        <v>16</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C503" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" s="10">
-        <v>15</v>
-      </c>
-      <c r="B504" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="C504" s="14" t="s">
-        <v>177</v>
+        <v>16</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C504" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
@@ -7434,10 +7440,10 @@
         <v>16</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
@@ -7445,10 +7451,10 @@
         <v>16</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
@@ -7456,10 +7462,10 @@
         <v>16</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
@@ -7467,10 +7473,10 @@
         <v>16</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
@@ -7478,54 +7484,54 @@
         <v>16</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>172</v>
+        <v>429</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" s="10">
-        <v>16</v>
-      </c>
-      <c r="B510" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C510" s="2" t="s">
-        <v>176</v>
+        <v>17</v>
+      </c>
+      <c r="B510" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C510" s="14" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="10">
-        <v>16</v>
-      </c>
-      <c r="B511" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C511" s="2" t="s">
-        <v>176</v>
+        <v>17</v>
+      </c>
+      <c r="B511" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C511" s="14" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" s="10">
-        <v>16</v>
-      </c>
-      <c r="B512" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C512" s="2" t="s">
-        <v>176</v>
+        <v>17</v>
+      </c>
+      <c r="B512" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C512" s="14" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" s="10">
-        <v>16</v>
-      </c>
-      <c r="B513" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C513" s="2" t="s">
-        <v>176</v>
+        <v>17</v>
+      </c>
+      <c r="B513" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="C513" s="14" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
@@ -7533,10 +7539,10 @@
         <v>17</v>
       </c>
       <c r="B514" s="14" t="s">
-        <v>184</v>
+        <v>431</v>
       </c>
       <c r="C514" s="14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
@@ -7544,10 +7550,10 @@
         <v>17</v>
       </c>
       <c r="B515" s="14" t="s">
-        <v>185</v>
+        <v>432</v>
       </c>
       <c r="C515" s="14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
@@ -7555,18 +7561,18 @@
         <v>17</v>
       </c>
       <c r="B516" s="14" t="s">
-        <v>186</v>
+        <v>433</v>
       </c>
       <c r="C516" s="14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B517" s="14" t="s">
-        <v>433</v>
+        <v>188</v>
       </c>
       <c r="C517" s="14" t="s">
         <v>190</v>
@@ -7574,10 +7580,10 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B518" s="14" t="s">
-        <v>434</v>
+        <v>189</v>
       </c>
       <c r="C518" s="14" t="s">
         <v>190</v>
@@ -7585,10 +7591,10 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B519" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C519" s="14" t="s">
         <v>190</v>
@@ -7596,21 +7602,21 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B520" s="14" t="s">
-        <v>436</v>
+        <v>191</v>
       </c>
       <c r="C520" s="14" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B521" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C521" s="14" t="s">
         <v>193</v>
@@ -7618,10 +7624,10 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B522" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C522" s="14" t="s">
         <v>193</v>
@@ -7629,79 +7635,79 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" s="10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B523" s="14" t="s">
-        <v>437</v>
+        <v>194</v>
       </c>
       <c r="C523" s="14" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B524" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C524" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B525" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C525" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A526" s="10">
-        <v>19</v>
-      </c>
-      <c r="B526" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="C526" s="14" t="s">
-        <v>196</v>
+      <c r="A526" s="6">
+        <v>21</v>
+      </c>
+      <c r="B526" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C526" s="15" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A527" s="10">
-        <v>20</v>
-      </c>
-      <c r="B527" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="C527" s="14" t="s">
+      <c r="A527" s="6">
+        <v>21</v>
+      </c>
+      <c r="B527" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C527" s="15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A528" s="6">
+        <v>21</v>
+      </c>
+      <c r="B528" s="15" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A528" s="10">
-        <v>20</v>
-      </c>
-      <c r="B528" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="C528" s="14" t="s">
-        <v>200</v>
+      <c r="C528" s="15" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A529" s="10">
-        <v>20</v>
-      </c>
-      <c r="B529" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C529" s="14" t="s">
-        <v>200</v>
+      <c r="A529" s="6">
+        <v>21</v>
+      </c>
+      <c r="B529" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C529" s="15" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -7709,450 +7715,450 @@
         <v>21</v>
       </c>
       <c r="B530" s="15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C530" s="15" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A531" s="6">
+      <c r="A531" s="10">
         <v>21</v>
       </c>
-      <c r="B531" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="C531" s="15" t="s">
-        <v>292</v>
+      <c r="B531" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C531" s="14" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A532" s="6">
-        <v>21</v>
-      </c>
-      <c r="B532" s="15" t="s">
+      <c r="A532" s="10">
+        <v>22</v>
+      </c>
+      <c r="B532" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="C532" s="15" t="s">
-        <v>292</v>
+      <c r="C532" s="14" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A533" s="6">
-        <v>21</v>
-      </c>
-      <c r="B533" s="15" t="s">
+      <c r="A533" s="10">
+        <v>22</v>
+      </c>
+      <c r="B533" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C533" s="15" t="s">
-        <v>292</v>
+      <c r="C533" s="14" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A534" s="6">
-        <v>21</v>
-      </c>
-      <c r="B534" s="15" t="s">
+      <c r="A534" s="10">
+        <v>22</v>
+      </c>
+      <c r="B534" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="C534" s="15" t="s">
-        <v>292</v>
+      <c r="C534" s="14" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B535" s="14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C535" s="14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" s="10">
-        <v>22</v>
-      </c>
-      <c r="B536" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="C536" s="14" t="s">
-        <v>293</v>
+        <v>23</v>
+      </c>
+      <c r="B536" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C536" s="16" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" s="10">
-        <v>22</v>
-      </c>
-      <c r="B537" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="C537" s="14" t="s">
-        <v>293</v>
+        <v>23</v>
+      </c>
+      <c r="B537" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C537" s="16" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" s="10">
-        <v>22</v>
-      </c>
-      <c r="B538" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="C538" s="14" t="s">
-        <v>293</v>
+        <v>23</v>
+      </c>
+      <c r="B538" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C538" s="16" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" s="10">
-        <v>22</v>
-      </c>
-      <c r="B539" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="C539" s="14" t="s">
-        <v>293</v>
+        <v>23</v>
+      </c>
+      <c r="B539" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C539" s="16" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C540" s="16" t="s">
-        <v>294</v>
+        <v>435</v>
+      </c>
+      <c r="C540" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B541" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C541" s="16" t="s">
-        <v>294</v>
+      <c r="C541" s="4" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B542" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C542" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="C542" s="16" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" s="10">
-        <v>23</v>
-      </c>
-      <c r="B543" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="C543" s="16" t="s">
-        <v>294</v>
+        <v>25</v>
+      </c>
+      <c r="B543" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C543" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>438</v>
+        <v>212</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C545" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" s="10">
-        <v>25</v>
-      </c>
-      <c r="B547" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C547" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B547" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C547" s="14" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" s="10">
-        <v>25</v>
-      </c>
-      <c r="B548" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C548" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B548" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="C548" s="14" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" s="10">
-        <v>25</v>
-      </c>
-      <c r="B549" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C549" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B549" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="C549" s="14" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" s="10">
-        <v>25</v>
-      </c>
-      <c r="B550" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="C550" s="4" t="s">
-        <v>217</v>
+        <v>27</v>
+      </c>
+      <c r="B550" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C550" s="14" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B551" s="14" t="s">
-        <v>218</v>
+        <v>292</v>
       </c>
       <c r="C551" s="14" t="s">
-        <v>220</v>
+        <v>292</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" s="10">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B552" s="14" t="s">
-        <v>441</v>
+        <v>219</v>
       </c>
       <c r="C552" s="14" t="s">
-        <v>220</v>
+        <v>293</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" s="10">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B553" s="14" t="s">
-        <v>442</v>
+        <v>220</v>
       </c>
       <c r="C553" s="14" t="s">
-        <v>220</v>
+        <v>293</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" s="10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B554" s="14" t="s">
         <v>221</v>
       </c>
       <c r="C554" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" s="10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B555" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C555" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B556" s="14" t="s">
         <v>222</v>
       </c>
       <c r="C556" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B557" s="14" t="s">
         <v>223</v>
       </c>
       <c r="C557" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B558" s="14" t="s">
         <v>224</v>
       </c>
       <c r="C558" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B559" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C559" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B560" s="14" t="s">
         <v>225</v>
       </c>
       <c r="C560" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B561" s="14" t="s">
         <v>226</v>
       </c>
       <c r="C561" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B562" s="14" t="s">
-        <v>227</v>
+        <v>295</v>
       </c>
       <c r="C562" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" s="10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B563" s="14" t="s">
-        <v>297</v>
+        <v>227</v>
       </c>
       <c r="C563" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" s="10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B564" s="14" t="s">
         <v>228</v>
       </c>
       <c r="C564" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" s="10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B565" s="14" t="s">
         <v>229</v>
       </c>
       <c r="C565" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" s="10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B566" s="14" t="s">
-        <v>298</v>
+        <v>440</v>
       </c>
       <c r="C566" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B567" s="14" t="s">
         <v>230</v>
       </c>
       <c r="C567" s="14" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B568" s="14" t="s">
         <v>231</v>
       </c>
       <c r="C568" s="14" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B569" s="14" t="s">
         <v>232</v>
       </c>
       <c r="C569" s="14" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B570" s="14" t="s">
-        <v>443</v>
+        <v>305</v>
       </c>
       <c r="C570" s="14" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
@@ -8163,50 +8169,50 @@
         <v>233</v>
       </c>
       <c r="C571" s="14" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" s="10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B572" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="C572" s="14" t="s">
+      <c r="C572" s="4" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" s="10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B573" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="C573" s="14" t="s">
+      <c r="C573" s="4" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" s="10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B574" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="C574" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C574" s="4" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" s="10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B575" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="C575" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C575" s="4" t="s">
         <v>236</v>
       </c>
     </row>
@@ -8214,55 +8220,55 @@
       <c r="A576" s="10">
         <v>33</v>
       </c>
-      <c r="B576" s="14" t="s">
-        <v>237</v>
+      <c r="B576" s="4" t="s">
+        <v>441</v>
       </c>
       <c r="C576" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B577" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C577" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
+      </c>
+      <c r="C577" s="14" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B578" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="C578" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
+      </c>
+      <c r="C578" s="14" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B579" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="C579" s="4" t="s">
         <v>239</v>
+      </c>
+      <c r="C579" s="14" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" s="10">
-        <v>33</v>
-      </c>
-      <c r="B580" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="C580" s="4" t="s">
-        <v>239</v>
+        <v>34</v>
+      </c>
+      <c r="B580" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C580" s="14" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
@@ -8270,219 +8276,219 @@
         <v>34</v>
       </c>
       <c r="B581" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="C581" s="14" t="s">
         <v>240</v>
-      </c>
-      <c r="C581" s="14" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B582" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="C582" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
+      </c>
+      <c r="C582" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B583" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="C583" s="14" t="s">
         <v>243</v>
+      </c>
+      <c r="C583" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B584" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C584" s="14" t="s">
-        <v>243</v>
+      <c r="C584" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B585" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="C585" s="14" t="s">
-        <v>243</v>
+        <v>245</v>
+      </c>
+      <c r="C585" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" s="10">
         <v>35</v>
       </c>
-      <c r="B586" s="14" t="s">
-        <v>245</v>
+      <c r="B586" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="C586" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B587" s="14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B588" s="14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C588" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B589" s="14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" s="10">
-        <v>35</v>
-      </c>
-      <c r="B590" s="4" t="s">
-        <v>249</v>
+        <v>36</v>
+      </c>
+      <c r="B590" s="14" t="s">
+        <v>250</v>
       </c>
       <c r="C590" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" s="10">
         <v>36</v>
       </c>
-      <c r="B591" s="14" t="s">
-        <v>250</v>
+      <c r="B591" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="C591" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B592" s="14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C592" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B593" s="14" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C593" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B594" s="14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C594" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" s="10">
-        <v>36</v>
-      </c>
-      <c r="B595" s="4" t="s">
-        <v>254</v>
+        <v>37</v>
+      </c>
+      <c r="B595" s="14" t="s">
+        <v>255</v>
       </c>
       <c r="C595" s="4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" s="10">
         <v>37</v>
       </c>
-      <c r="B596" s="14" t="s">
-        <v>255</v>
+      <c r="B596" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="C596" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" s="10">
-        <v>37</v>
-      </c>
-      <c r="B597" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="C597" s="4" t="s">
-        <v>259</v>
+        <v>38</v>
+      </c>
+      <c r="B597" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C597" s="16" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" s="10">
-        <v>37</v>
-      </c>
-      <c r="B598" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="C598" s="4" t="s">
-        <v>259</v>
+        <v>38</v>
+      </c>
+      <c r="B598" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C598" s="16" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" s="10">
-        <v>37</v>
-      </c>
-      <c r="B599" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="C599" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B599" s="16" t="s">
         <v>259</v>
+      </c>
+      <c r="C599" s="16" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" s="10">
-        <v>37</v>
-      </c>
-      <c r="B600" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C600" s="4" t="s">
-        <v>259</v>
+        <v>38</v>
+      </c>
+      <c r="B600" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C600" s="16" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
@@ -8490,10 +8496,10 @@
         <v>38</v>
       </c>
       <c r="B601" s="16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C601" s="16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
@@ -8501,10 +8507,10 @@
         <v>38</v>
       </c>
       <c r="B602" s="16" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C602" s="16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
@@ -8512,10 +8518,10 @@
         <v>38</v>
       </c>
       <c r="B603" s="16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C603" s="16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
@@ -8523,10 +8529,10 @@
         <v>38</v>
       </c>
       <c r="B604" s="16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C604" s="16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
@@ -8534,54 +8540,54 @@
         <v>38</v>
       </c>
       <c r="B605" s="16" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C605" s="16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" s="10">
-        <v>38</v>
-      </c>
-      <c r="B606" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="C606" s="16" t="s">
-        <v>268</v>
+        <v>39</v>
+      </c>
+      <c r="B606" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C606" s="14" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" s="10">
-        <v>38</v>
-      </c>
-      <c r="B607" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="C607" s="16" t="s">
-        <v>268</v>
+        <v>39</v>
+      </c>
+      <c r="B607" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C607" s="14" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" s="10">
-        <v>38</v>
-      </c>
-      <c r="B608" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="C608" s="16" t="s">
-        <v>268</v>
+        <v>39</v>
+      </c>
+      <c r="B608" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C608" s="14" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" s="10">
-        <v>38</v>
-      </c>
-      <c r="B609" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B609" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="C609" s="16" t="s">
-        <v>268</v>
+      <c r="C609" s="14" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
@@ -8589,10 +8595,10 @@
         <v>39</v>
       </c>
       <c r="B610" s="14" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="C610" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
@@ -8600,10 +8606,10 @@
         <v>39</v>
       </c>
       <c r="B611" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C611" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
@@ -8611,65 +8617,65 @@
         <v>39</v>
       </c>
       <c r="B612" s="14" t="s">
-        <v>289</v>
+        <v>443</v>
       </c>
       <c r="C612" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" s="10">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B613" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C613" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" s="10">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B614" s="14" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="C614" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" s="10">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B615" s="14" t="s">
         <v>272</v>
       </c>
       <c r="C615" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" s="10">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B616" s="14" t="s">
-        <v>446</v>
+        <v>273</v>
       </c>
       <c r="C616" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B617" s="14" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C617" s="14" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
@@ -8677,10 +8683,10 @@
         <v>41</v>
       </c>
       <c r="B618" s="14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C618" s="14" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
@@ -8688,10 +8694,10 @@
         <v>41</v>
       </c>
       <c r="B619" s="14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C619" s="14" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
@@ -8699,88 +8705,59 @@
         <v>41</v>
       </c>
       <c r="B620" s="14" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="C620" s="14" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B621" s="14" t="s">
-        <v>277</v>
+        <v>450</v>
       </c>
       <c r="C621" s="14" t="s">
-        <v>301</v>
+        <v>448</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B622" s="14" t="s">
-        <v>278</v>
+        <v>451</v>
       </c>
       <c r="C622" s="14" t="s">
-        <v>301</v>
+        <v>449</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" s="10">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B623" s="14" t="s">
-        <v>279</v>
+        <v>452</v>
       </c>
       <c r="C623" s="14" t="s">
-        <v>301</v>
+        <v>453</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A624" s="10">
-        <v>41</v>
+      <c r="A624" s="1">
+        <v>42</v>
       </c>
       <c r="B624" s="14" t="s">
-        <v>301</v>
+        <v>454</v>
       </c>
       <c r="C624" s="14" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A625" s="10">
-        <v>42</v>
-      </c>
-      <c r="B625" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="C625" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A626" s="10">
-        <v>42</v>
-      </c>
-      <c r="B626" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="C626" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A627" s="10">
-        <v>42</v>
-      </c>
-      <c r="B627" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="C627" s="14" t="s">
-        <v>282</v>
-      </c>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="625" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B625" s="14"/>
+      <c r="C625" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
